--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:37:08+00:00</t>
+    <t>2024-12-23T15:03:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:03:08+00:00</t>
+    <t>2024-12-23T15:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:06:22+00:00</t>
+    <t>2024-12-23T15:21:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -521,7 +521,7 @@
     <t>Extension.extension:source.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role-profession|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
 </t>
   </si>
   <si>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:21:49+00:00</t>
+    <t>2024-12-23T15:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:22:28+00:00</t>
+    <t>2024-12-23T15:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
